--- a/be-patient.xlsx
+++ b/be-patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="445">
   <si>
     <t>Path</t>
   </si>
@@ -850,6 +850,10 @@
     <t>Patient.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-address}
+</t>
+  </si>
+  <si>
     <t>An address for the individual</t>
   </si>
   <si>
@@ -867,44 +871,6 @@
   </si>
   <si>
     <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>humanLanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {language}
-</t>
-  </si>
-  <si>
-    <t>Human Language for the item</t>
-  </si>
-  <si>
-    <t>The Human Language of the item.</t>
-  </si>
-  <si>
-    <t>This is used where an item may repeat to indicate the language of each repeat.</t>
-  </si>
-  <si>
-    <t>Patient.address.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/language</t>
-  </si>
-  <si>
-    <t>Patient.address.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:item.resolve()}
-</t>
-  </si>
-  <si>
-    <t>valueCode</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1626,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI105"/>
+  <dimension ref="A1:AI99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7459,19 +7425,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7537,7 +7503,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7634,7 +7600,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7733,17 +7699,15 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>44</v>
@@ -7752,13 +7716,13 @@
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>268</v>
@@ -7769,7 +7733,9 @@
       <c r="M62" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>39</v>
       </c>
@@ -7781,7 +7747,7 @@
         <v>39</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>39</v>
@@ -7793,13 +7759,13 @@
         <v>39</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>39</v>
@@ -7817,24 +7783,24 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7854,18 +7820,20 @@
         <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -7878,7 +7846,7 @@
         <v>39</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>39</v>
@@ -7890,13 +7858,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -7914,7 +7882,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>37</v>
@@ -7923,26 +7891,26 @@
         <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -7951,21 +7919,23 @@
         <v>39</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>39</v>
       </c>
@@ -7977,7 +7947,7 @@
         <v>39</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>39</v>
@@ -8001,36 +7971,36 @@
         <v>39</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8038,10 +8008,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>39</v>
@@ -8050,19 +8020,19 @@
         <v>39</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8070,13 +8040,13 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>39</v>
@@ -8112,28 +8082,28 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8149,19 +8119,19 @@
         <v>39</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8175,7 +8145,7 @@
         <v>39</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>39</v>
@@ -8199,17 +8169,19 @@
         <v>39</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>37</v>
@@ -8226,13 +8198,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8248,19 +8218,19 @@
         <v>39</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8274,7 +8244,7 @@
         <v>39</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>39</v>
@@ -8286,13 +8256,13 @@
         <v>39</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>39</v>
@@ -8310,7 +8280,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>37</v>
@@ -8327,11 +8297,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8344,26 +8314,24 @@
         <v>39</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>39</v>
       </c>
@@ -8375,7 +8343,7 @@
         <v>39</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>39</v>
@@ -8387,13 +8355,13 @@
         <v>39</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8411,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>37</v>
@@ -8428,11 +8396,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8451,16 +8419,16 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8474,7 +8442,7 @@
         <v>39</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>39</v>
@@ -8486,13 +8454,13 @@
         <v>39</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -8510,7 +8478,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>37</v>
@@ -8527,7 +8495,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8553,17 +8521,15 @@
         <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>39</v>
       </c>
@@ -8575,7 +8541,7 @@
         <v>39</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>39</v>
@@ -8611,7 +8577,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>37</v>
@@ -8628,7 +8594,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8639,7 +8605,7 @@
         <v>37</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>39</v>
@@ -8651,18 +8617,20 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
       </c>
@@ -8674,7 +8642,7 @@
         <v>39</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>39</v>
@@ -8710,28 +8678,28 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>52</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>309</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -8747,21 +8715,23 @@
         <v>39</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>39</v>
       </c>
@@ -8773,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>39</v>
@@ -8785,13 +8755,13 @@
         <v>39</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>39</v>
@@ -8809,7 +8779,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>37</v>
@@ -8826,11 +8796,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8846,21 +8816,23 @@
         <v>39</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>340</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
       </c>
@@ -8872,7 +8844,7 @@
         <v>39</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>39</v>
@@ -8908,7 +8880,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>37</v>
@@ -8925,18 +8897,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>322</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>39</v>
@@ -8945,21 +8917,23 @@
         <v>39</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>39</v>
       </c>
@@ -9007,35 +8981,35 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>52</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>39</v>
@@ -9044,21 +9018,23 @@
         <v>39</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>103</v>
+        <v>353</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>39</v>
       </c>
@@ -9070,7 +9046,7 @@
         <v>39</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>330</v>
+        <v>39</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>39</v>
@@ -9106,24 +9082,24 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>52</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9143,20 +9119,18 @@
         <v>39</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>103</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>39</v>
@@ -9205,7 +9179,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>37</v>
@@ -9214,26 +9188,26 @@
         <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>39</v>
@@ -9242,23 +9216,21 @@
         <v>39</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>338</v>
+        <v>90</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>39</v>
       </c>
@@ -9270,7 +9242,7 @@
         <v>39</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>39</v>
@@ -9294,71 +9266,71 @@
         <v>39</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>347</v>
+        <v>147</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -9383,13 +9355,13 @@
         <v>39</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
@@ -9407,24 +9379,24 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9435,7 +9407,7 @@
         <v>37</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>39</v>
@@ -9447,19 +9419,19 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>351</v>
+        <v>121</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
@@ -9484,13 +9456,13 @@
         <v>39</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -9508,13 +9480,13 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>51</v>
@@ -9525,7 +9497,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9536,7 +9508,7 @@
         <v>37</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>39</v>
@@ -9548,19 +9520,19 @@
         <v>39</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -9609,24 +9581,24 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>362</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9649,19 +9621,19 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
@@ -9710,7 +9682,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>37</v>
@@ -9722,12 +9694,12 @@
         <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>369</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9750,16 +9722,20 @@
         <v>39</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
       </c>
@@ -9807,7 +9783,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>106</v>
+        <v>381</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>37</v>
@@ -9816,26 +9792,26 @@
         <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>39</v>
@@ -9847,18 +9823,20 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>39</v>
       </c>
@@ -9882,83 +9860,83 @@
         <v>39</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>373</v>
+        <v>39</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10007,24 +9985,24 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10035,7 +10013,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>39</v>
@@ -10047,20 +10025,18 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>39</v>
       </c>
@@ -10084,13 +10060,13 @@
         <v>39</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>382</v>
+        <v>39</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>39</v>
@@ -10108,24 +10084,24 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>52</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10136,7 +10112,7 @@
         <v>37</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>39</v>
@@ -10148,19 +10124,19 @@
         <v>39</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -10209,13 +10185,13 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>51</v>
@@ -10226,7 +10202,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10237,7 +10213,7 @@
         <v>37</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>39</v>
@@ -10249,20 +10225,16 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>39</v>
       </c>
@@ -10310,35 +10282,35 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>388</v>
+        <v>106</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>39</v>
@@ -10350,20 +10322,18 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>39</v>
       </c>
@@ -10399,71 +10369,71 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>392</v>
+        <v>109</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>225</v>
+        <v>363</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>305</v>
+        <v>92</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -10488,13 +10458,13 @@
         <v>39</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -10512,24 +10482,24 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10537,7 +10507,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>44</v>
@@ -10552,19 +10522,19 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>39</v>
@@ -10589,13 +10559,13 @@
         <v>39</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>39</v>
@@ -10613,24 +10583,24 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>405</v>
+        <v>51</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10653,18 +10623,20 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
@@ -10712,7 +10684,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>37</v>
@@ -10724,16 +10696,16 @@
         <v>51</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>196</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -10752,20 +10724,18 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
@@ -10813,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>37</v>
@@ -10825,12 +10795,12 @@
         <v>51</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>52</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10850,19 +10820,23 @@
         <v>39</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>423</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>104</v>
+        <v>424</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>39</v>
       </c>
@@ -10910,7 +10884,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>37</v>
@@ -10919,19 +10893,19 @@
         <v>44</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>39</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -10944,24 +10918,26 @@
         <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>90</v>
+        <v>429</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>108</v>
+        <v>430</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
@@ -10997,19 +10973,19 @@
         <v>39</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>109</v>
+        <v>428</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>37</v>
@@ -11021,48 +10997,44 @@
         <v>51</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>373</v>
+        <v>39</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11110,35 +11082,35 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>376</v>
+        <v>106</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>39</v>
@@ -11150,20 +11122,18 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>418</v>
+        <v>90</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
@@ -11187,83 +11157,83 @@
         <v>39</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>417</v>
+        <v>109</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>39</v>
+        <v>362</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>426</v>
+        <v>147</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -11312,35 +11282,35 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>428</v>
+        <v>39</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>39</v>
@@ -11349,19 +11319,19 @@
         <v>39</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -11411,13 +11381,13 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>51</v>
@@ -11428,7 +11398,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11436,7 +11406,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>44</v>
@@ -11451,20 +11421,18 @@
         <v>45</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>434</v>
+        <v>65</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>39</v>
       </c>
@@ -11488,13 +11456,13 @@
         <v>39</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>39</v>
+        <v>443</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>39</v>
@@ -11512,10 +11480,10 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>44</v>
@@ -11524,607 +11492,11 @@
         <v>51</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI105" t="s" s="2">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI105">
+  <autoFilter ref="A1:AI99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12134,7 +11506,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/be-patient.xlsx
+++ b/be-patient.xlsx
@@ -721,7 +721,7 @@
   </si>
   <si>
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.
-It is RECOMMENDED to at least add one phone or email address.</t>
+It is RECOMMENDED to at least add one phone or email address with clear indication using the .use element whether it is home use, private use,...</t>
   </si>
   <si>
     <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>

--- a/be-patient.xlsx
+++ b/be-patient.xlsx
@@ -501,8 +501,8 @@
     <t>An identifier for this patient</t>
   </si>
   <si>
-    <t xml:space="preserve">An identifier for this patient.
-Typically, when SSIN is available it is used. Organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. </t>
+    <t>An identifier for this patient.
+Typically, when SSIN is available it is used. Organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When an identifier is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
@@ -677,8 +677,7 @@
     <t>Whether this patient record is in active use. 
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-It is RECOMMENDED to keep the value ‘true’ as long as the patient is still being treated by the provider of the data.</t>
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
   </si>
   <si>
     <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
@@ -700,8 +699,8 @@
     <t>A name associated with the patient</t>
   </si>
   <si>
-    <t xml:space="preserve">A name associated with the individual. 
-It is RECOMMENDED to give at least one familyname and at least one given name when possible and define an 'official' use. When names are given, the consumer SHALL record this in its consuming system. </t>
+    <t>A name associated with the individual. 
+It is RECOMMENDED to give at least one familyname and at least one given name when possible and define an 'official' use. When names are given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
@@ -858,7 +857,7 @@
   </si>
   <si>
     <t>An address for the individual. 
-It is RECOMMENDED to include an address when available.</t>
+It is RECOMMENDED to include an address when available. When needed to express the availablity of a Patient at home (e.g. only Wednesdays), another solution will be defined.</t>
   </si>
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.</t>
@@ -1107,7 +1106,7 @@
     <t>Whether patient is part of a multiple birth</t>
   </si>
   <si>
-    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer). Care SHOULD be given when exchanging Patient instances in a purely administrative flow.</t>
   </si>
   <si>
     <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
@@ -4927,7 +4926,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>39</v>
